--- a/src/main/resources/lab.xlsx
+++ b/src/main/resources/lab.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshbl\IdeaProjects\labs-model\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373BEDE5-3512-4309-A9B3-0921847BBFC1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,8 +24,12 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -53,7 +63,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,10 +340,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:W12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>

--- a/src/main/resources/lab.xlsx
+++ b/src/main/resources/lab.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pshbl\IdeaProjects\labs-model\src\main\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,11 +25,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
+  <si>
+    <t>LAB 1</t>
+  </si>
+  <si>
+    <t>Число элементов</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>LAB 2: font-style = italic</t>
+  </si>
+  <si>
+    <t>LAB 2: font-weight = bold</t>
+  </si>
+  <si>
+    <t>LAB 2: text-decoration = underline</t>
+  </si>
+  <si>
+    <t>LAB 2: 10pt</t>
+  </si>
+  <si>
+    <t>LAB 2: 11pt</t>
+  </si>
+  <si>
+    <t>LAB 2: 12pt</t>
+  </si>
+  <si>
+    <t>LAB 2: 16pt</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -341,14 +373,191 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" t="s">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" t="s">
+        <v>1</v>
+      </c>
+      <c r="W2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>959.0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1181.0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>878.0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1226.0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>926.0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>831.0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1054.0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1011.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1536.0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>978.0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>837.0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1135.0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>903.0</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>915.0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>951.0</v>
+      </c>
+      <c r="V4" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1266.0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/src/main/resources/lab.xlsx
+++ b/src/main/resources/lab.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="10">
   <si>
     <t>LAB 1</t>
   </si>
@@ -373,7 +373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:W12"/>
@@ -462,7 +462,7 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="n">
-        <v>959.0</v>
+        <v>977.0</v>
       </c>
       <c r="D3" t="n">
         <v>2.0</v>
@@ -512,7 +512,7 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="n">
-        <v>1536.0</v>
+        <v>857.0</v>
       </c>
       <c r="D4" t="n">
         <v>3.0</v>
@@ -555,6 +555,54 @@
       </c>
       <c r="W4" t="n">
         <v>1266.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1121.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1143.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1208.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1622.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1723.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1758.0</v>
       </c>
     </row>
   </sheetData>
